--- a/expense-tracker .Xlsx
+++ b/expense-tracker .Xlsx
@@ -2,33 +2,35 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niharika poojari\Desktop\excel-expense-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B549318D-1D3C-4BF3-BB10-EBC56D79B848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B30618-BD27-4409-AF7D-1B8886FF5AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E2835DA3-1118-4D31-A3B1-8E81291A89B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E2835DA3-1118-4D31-A3B1-8E81291A89B6}"/>
   </bookViews>
   <sheets>
-    <sheet name="SUMMARY" sheetId="2" r:id="rId1"/>
-    <sheet name="raw data" sheetId="1" r:id="rId2"/>
-    <sheet name="dashboard" sheetId="3" r:id="rId3"/>
+    <sheet name="Pivot table3" sheetId="7" r:id="rId1"/>
+    <sheet name="DASHBOARD" sheetId="9" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="8" r:id="rId3"/>
+    <sheet name="raw data" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Slicer_DATE">#N/A</definedName>
+    <definedName name="Slicer_PAYMENT_METHOD">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
         <x14:slicerCache r:id="rId6"/>
+        <x14:slicerCache r:id="rId7"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>DATE</t>
   </si>
@@ -161,25 +163,13 @@
     <t>Sum of AMOUNT</t>
   </si>
   <si>
-    <t>ROW</t>
-  </si>
-  <si>
-    <t>TOTAL SPENDING</t>
-  </si>
-  <si>
-    <t>HIGHEST SPENDING CATEGORY</t>
-  </si>
-  <si>
-    <t>RENT</t>
-  </si>
-  <si>
-    <t>TOTAL CATEGORIES</t>
-  </si>
-  <si>
     <t>Row Labels</t>
   </si>
   <si>
-    <t>PERSONAL EXPENSE DASHBOARD</t>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>PERSONAL BUDGET TRACKER DASHBOARD</t>
   </si>
 </sst>
 </file>
@@ -207,14 +197,13 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -222,33 +211,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -256,52 +227,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -309,22 +239,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -345,6 +267,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -373,48 +298,16 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[expense-tracker .Xlsx]SUMMARY!PivotTable1</c:name>
-    <c:fmtId val="3"/>
+    <c:name>[expense-tracker .Xlsx]Pivot table3!PivotTable2</c:name>
+    <c:fmtId val="12"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>SPENDING</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> BY CATEGORY</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -512,6 +405,654 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot table3'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F39E-4741-83CE-BAFAA3B08CA3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F39E-4741-83CE-BAFAA3B08CA3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F39E-4741-83CE-BAFAA3B08CA3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F39E-4741-83CE-BAFAA3B08CA3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-F39E-4741-83CE-BAFAA3B08CA3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-F39E-4741-83CE-BAFAA3B08CA3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-F39E-4741-83CE-BAFAA3B08CA3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-F39E-4741-83CE-BAFAA3B08CA3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-F39E-4741-83CE-BAFAA3B08CA3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-F39E-4741-83CE-BAFAA3B08CA3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pivot table3'!$A$4:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>rent</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shopping</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>education</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bills</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>entertainment</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>health</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mics</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>travel</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>travel bus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot table3'!$B$4:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1740</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A44E-499F-A8D4-0CA9E2EC61E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[expense-tracker .Xlsx]Pivot table3!PivotTable2</c:name>
+    <c:fmtId val="10"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>SPENDING</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> BY CATEGORY</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29140266841644796"/>
+          <c:y val="0.12397929425488481"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
@@ -546,8 +1087,68 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -710,20 +1311,6 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="13"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
@@ -769,6 +1356,20 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="14"/>
@@ -896,48 +1497,6 @@
           <a:effectLst/>
         </c:spPr>
       </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="23"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="24"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="25"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -948,7 +1507,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>SUMMARY!$B$3</c:f>
+              <c:f>'Pivot table3'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -973,7 +1532,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-525B-4171-B499-9795A98418AD}"/>
+                <c16:uniqueId val="{00000001-89E5-404F-8382-CAA879EC7DC9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -993,7 +1552,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-525B-4171-B499-9795A98418AD}"/>
+                <c16:uniqueId val="{00000003-89E5-404F-8382-CAA879EC7DC9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1013,7 +1572,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-525B-4171-B499-9795A98418AD}"/>
+                <c16:uniqueId val="{00000005-89E5-404F-8382-CAA879EC7DC9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1033,7 +1592,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-525B-4171-B499-9795A98418AD}"/>
+                <c16:uniqueId val="{00000007-89E5-404F-8382-CAA879EC7DC9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1053,7 +1612,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-525B-4171-B499-9795A98418AD}"/>
+                <c16:uniqueId val="{00000009-89E5-404F-8382-CAA879EC7DC9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1073,7 +1632,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-525B-4171-B499-9795A98418AD}"/>
+                <c16:uniqueId val="{0000000B-89E5-404F-8382-CAA879EC7DC9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1095,7 +1654,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-525B-4171-B499-9795A98418AD}"/>
+                <c16:uniqueId val="{0000000D-89E5-404F-8382-CAA879EC7DC9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1117,7 +1676,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-525B-4171-B499-9795A98418AD}"/>
+                <c16:uniqueId val="{0000000F-89E5-404F-8382-CAA879EC7DC9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1139,7 +1698,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-525B-4171-B499-9795A98418AD}"/>
+                <c16:uniqueId val="{00000011-89E5-404F-8382-CAA879EC7DC9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1161,29 +1720,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-525B-4171-B499-9795A98418AD}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-525B-4171-B499-9795A98418AD}"/>
+                <c16:uniqueId val="{00000013-89E5-404F-8382-CAA879EC7DC9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1245,7 +1782,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>SUMMARY!$A$4:$A$14</c:f>
+              <c:f>'Pivot table3'!$A$4:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1283,9 +1820,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SUMMARY!$B$4:$B$14</c:f>
+              <c:f>'Pivot table3'!$B$4:$B$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>8000</c:v>
@@ -1322,7 +1859,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-525B-4171-B499-9795A98418AD}"/>
+              <c16:uniqueId val="{00000014-89E5-404F-8382-CAA879EC7DC9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1394,7 +1931,10 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="bg2"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1422,6 +1962,7 @@
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
         <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -1433,7 +1974,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1447,8 +1988,8 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[expense-tracker .Xlsx]SUMMARY!PivotTable4</c:name>
-    <c:fmtId val="20"/>
+    <c:name>[expense-tracker .Xlsx]Sheet4!PivotTable3</c:name>
+    <c:fmtId val="7"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -1458,7 +1999,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1471,22 +2012,32 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>MONTHLY</a:t>
+              <a:rPr lang="en-US" sz="1400" b="1"/>
+              <a:t>SPENDING</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-IN" baseline="0"/>
-              <a:t> SPENDING TREND</a:t>
+              <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+              <a:t> BY MONTH</a:t>
             </a:r>
-            <a:endParaRPr lang="en-IN"/>
+            <a:endParaRPr lang="en-US" sz="1400" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30870122484689416"/>
+          <c:y val="0.11934966462525518"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1495,7 +2046,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1507,7 +2058,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1676,8 +2227,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1689,17 +2241,7 @@
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.16013648293963254"/>
-          <c:y val="9.024314668999707E-2"/>
-          <c:w val="0.83841863517060367"/>
-          <c:h val="0.65607283464566923"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1708,7 +2250,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>SUMMARY!$D$8</c:f>
+              <c:f>Sheet4!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1729,20 +2271,78 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>SUMMARY!$D$9</c:f>
+              <c:f>Sheet4!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>Jan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SUMMARY!$D$9</c:f>
+              <c:f>Sheet4!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1755,24 +2355,25 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ACE2-499F-9FB5-34A60CC8AC1D}"/>
+              <c16:uniqueId val="{00000000-DE79-4099-94FB-E3292BE0CE39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1235885583"/>
-        <c:axId val="1235886063"/>
+        <c:axId val="2107632767"/>
+        <c:axId val="2107646207"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1235885583"/>
+        <c:axId val="2107632767"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1815,7 +2416,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235886063"/>
+        <c:crossAx val="2107646207"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1823,7 +2424,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1235886063"/>
+        <c:axId val="2107646207"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1874,16 +2475,53 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235885583"/>
+        <c:crossAx val="2107632767"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg2"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1936,7 +2574,10 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="bg2"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1964,6 +2605,393 @@
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
         <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[expense-tracker .Xlsx]Sheet4!PivotTable3</c:name>
+    <c:fmtId val="9"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$4:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$4:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14468</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-065B-4B96-921F-C7DA47BCAB43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2107642847"/>
+        <c:axId val="2107635167"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2107642847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2107635167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2107635167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2107642847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -2055,6 +3083,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -2575,6 +3683,1041 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3095,22 +5238,63 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:colOff>99060</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FE4BA2A-093E-B6AD-FA1C-7C29EA4DB6E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FAA0DCE-5E78-4F3D-823C-E649DD60408B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B64ECD1A-33B5-477A-A3EA-5F7A4EB6E093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3132,23 +5316,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{742FF8B8-569B-4EC3-B473-743BA5373F92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E5634F2-4391-4515-BFE4-1C52F8E9707E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3170,25 +5354,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3368040</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>5715</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="6" name="DATE">
+            <xdr:cNvPr id="4" name="DATE">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9435E825-85FC-4AD1-827C-19BC30FC1D75}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA9D0D16-964E-4DE6-949D-09F699ED2835}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3215,7 +5399,85 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3741420" y="1889760"/>
+              <a:off x="4815840" y="1569720"/>
+              <a:ext cx="1828800" cy="2466975"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="PAYMENT METHOD">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C76E96B9-4025-8FBA-F0F0-81ED6A3A5F35}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="PAYMENT METHOD"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6781800" y="1562100"/>
               <a:ext cx="1828800" cy="2466975"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3249,72 +5511,55 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="niharika poojari" refreshedDate="45993.675768749999" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="15" xr:uid="{42A5B0AD-14A4-4574-9830-E07C052DBF76}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E16" sheet="raw data"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="DATE" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-01-01T00:00:00" maxDate="2025-01-16T00:00:00" count="15">
-        <d v="2025-01-01T00:00:00"/>
-        <d v="2025-01-02T00:00:00"/>
-        <d v="2025-01-03T00:00:00"/>
-        <d v="2025-01-04T00:00:00"/>
-        <d v="2025-01-05T00:00:00"/>
-        <d v="2025-01-06T00:00:00"/>
-        <d v="2025-01-07T00:00:00"/>
-        <d v="2025-01-08T00:00:00"/>
-        <d v="2025-01-09T00:00:00"/>
-        <d v="2025-01-10T00:00:00"/>
-        <d v="2025-01-11T00:00:00"/>
-        <d v="2025-01-12T00:00:00"/>
-        <d v="2025-01-13T00:00:00"/>
-        <d v="2025-01-14T00:00:00"/>
-        <d v="2025-01-15T00:00:00"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="CATEGORY" numFmtId="0">
-      <sharedItems containsBlank="1" count="11">
-        <s v="Food"/>
-        <s v="travel bus"/>
-        <s v="bills"/>
-        <s v="shopping"/>
-        <s v="entertainment"/>
-        <s v="health"/>
-        <s v="mics"/>
-        <s v="rent"/>
-        <s v="education"/>
-        <s v="travel"/>
-        <m u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="DESCRIPTION" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="AMOUNT" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="30" maxValue="8000"/>
-    </cacheField>
-    <cacheField name="PAYMENT METHOD" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="1332472497"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66605435-A1A0-F4A5-972E-B31AD7172307}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="niharika poojari" refreshedDate="45993.675768981484" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="15" xr:uid="{C02861BC-5B5A-4ED8-BE5C-B6CB1F911C4A}">
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="niharika poojari" refreshedDate="45996.685321874997" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="15" xr:uid="{13393B3B-EA28-4DD2-BF6E-77BD7C3E55F0}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E16" sheet="raw data"/>
+    <worksheetSource name="Table1"/>
   </cacheSource>
-  <cacheFields count="5">
+  <cacheFields count="6">
     <cacheField name="DATE" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-01-01T00:00:00" maxDate="2025-02-03T00:00:00" count="17">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-01-01T00:00:00" maxDate="2025-02-02T00:00:00" count="16">
         <d v="2025-01-01T00:00:00"/>
         <d v="2025-01-02T00:00:00"/>
         <d v="2025-01-03T00:00:00"/>
@@ -3331,11 +5576,22 @@
         <d v="2025-01-14T00:00:00"/>
         <d v="2025-01-15T00:00:00"/>
         <d v="2025-02-01T00:00:00" u="1"/>
-        <d v="2025-02-02T00:00:00" u="1"/>
       </sharedItems>
+      <fieldGroup par="5"/>
     </cacheField>
     <cacheField name="CATEGORY" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="10">
+        <s v="Food"/>
+        <s v="travel bus"/>
+        <s v="bills"/>
+        <s v="shopping"/>
+        <s v="entertainment"/>
+        <s v="health"/>
+        <s v="mics"/>
+        <s v="rent"/>
+        <s v="education"/>
+        <s v="travel"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="DESCRIPTION" numFmtId="0">
       <sharedItems/>
@@ -3344,12 +5600,38 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="30" maxValue="8000"/>
     </cacheField>
     <cacheField name="PAYMENT METHOD" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="4">
+        <s v="cash"/>
+        <s v="UPI"/>
+        <s v="net banking"/>
+        <s v="card"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Months (DATE)" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="months" startDate="2025-01-01T00:00:00" endDate="2025-01-16T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;01-01-2025"/>
+          <s v="Jan"/>
+          <s v="Feb"/>
+          <s v="Mar"/>
+          <s v="Apr"/>
+          <s v="May"/>
+          <s v="Jun"/>
+          <s v="Jul"/>
+          <s v="Aug"/>
+          <s v="Sep"/>
+          <s v="Oct"/>
+          <s v="Nov"/>
+          <s v="Dec"/>
+          <s v="&gt;16-01-2025"/>
+        </groupItems>
+      </fieldGroup>
     </cacheField>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="633777583"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -3362,225 +5644,115 @@
     <x v="0"/>
     <s v="lunch at café"/>
     <n v="250"/>
-    <s v="cash"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <s v="bus ticket"/>
     <n v="30"/>
-    <s v="UPI"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
     <s v="electricity bill"/>
     <n v="1200"/>
-    <s v="net banking"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="3"/>
     <x v="3"/>
     <s v="groceries"/>
     <n v="540"/>
-    <s v="card"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="4"/>
     <x v="4"/>
     <s v="movie"/>
     <n v="300"/>
-    <s v="UPI"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="5"/>
     <x v="5"/>
     <s v="medicine purchase"/>
     <n v="180"/>
-    <s v="card"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="6"/>
     <x v="6"/>
     <s v="stationery items"/>
     <n v="90"/>
-    <s v="cash"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="7"/>
     <x v="0"/>
     <s v="dinner with friends"/>
     <n v="700"/>
-    <s v="UPI"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="8"/>
     <x v="7"/>
     <s v="monthly house rent"/>
     <n v="8000"/>
-    <s v="net banking"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="9"/>
     <x v="8"/>
     <s v="online course"/>
     <n v="1500"/>
-    <s v="card"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="10"/>
     <x v="9"/>
     <s v="auto fare"/>
     <n v="60"/>
-    <s v="cash"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="11"/>
     <x v="2"/>
     <s v="mobile recharge"/>
     <n v="199"/>
-    <s v="UPI"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="12"/>
     <x v="3"/>
     <s v="clothes purchase"/>
     <n v="1200"/>
-    <s v="card"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="13"/>
     <x v="4"/>
     <s v="music subscription"/>
     <n v="99"/>
-    <s v="UPI"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="14"/>
     <x v="0"/>
     <s v="breakfast"/>
     <n v="120"/>
-    <s v="cash"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="15">
-  <r>
     <x v="0"/>
-    <s v="Food"/>
-    <s v="lunch at café"/>
-    <n v="250"/>
-    <s v="cash"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="travel bus"/>
-    <s v="bus ticket"/>
-    <n v="30"/>
-    <s v="UPI"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="bills"/>
-    <s v="electricity bill"/>
-    <n v="1200"/>
-    <s v="net banking"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="shopping"/>
-    <s v="groceries"/>
-    <n v="540"/>
-    <s v="card"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="entertainment"/>
-    <s v="movie"/>
-    <n v="300"/>
-    <s v="UPI"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="health"/>
-    <s v="medicine purchase"/>
-    <n v="180"/>
-    <s v="card"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="mics"/>
-    <s v="stationery items"/>
-    <n v="90"/>
-    <s v="cash"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="Food"/>
-    <s v="dinner with friends"/>
-    <n v="700"/>
-    <s v="UPI"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <s v="rent"/>
-    <s v="monthly house rent"/>
-    <n v="8000"/>
-    <s v="net banking"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="education"/>
-    <s v="online course"/>
-    <n v="1500"/>
-    <s v="card"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <s v="travel"/>
-    <s v="auto fare"/>
-    <n v="60"/>
-    <s v="cash"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <s v="bills"/>
-    <s v="mobile recharge"/>
-    <n v="199"/>
-    <s v="UPI"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="shopping"/>
-    <s v="clothes purchase"/>
-    <n v="1200"/>
-    <s v="card"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="entertainment"/>
-    <s v="music subscription"/>
-    <n v="99"/>
-    <s v="UPI"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <s v="Food"/>
-    <s v="breakfast"/>
-    <n v="120"/>
-    <s v="cash"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3DA4723-C4B2-4C8B-817A-E890A90B27B9}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21">
-  <location ref="D8:D9" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="5">
-    <pivotField showAll="0" sortType="descending">
-      <items count="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B12ECF50-27A1-4EE1-B264-413E482824FE}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="17">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -3596,6 +5768,22 @@
         <item x="12"/>
         <item x="13"/>
         <item x="14"/>
+        <item m="1" x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="11">
+        <item x="2"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -3609,84 +5797,18 @@
       </autoSortScope>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of AMOUNT" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="10" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="18" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="20" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1875BE8E-AD9F-40AD-B3C6-B470A7641C1D}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11" rowHeaderCaption="ROW">
-  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
     <pivotField showAll="0">
-      <items count="16">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -3701,38 +5823,9 @@
         <item x="11"/>
         <item x="12"/>
         <item x="13"/>
-        <item x="14"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="12">
-        <item x="2"/>
-        <item x="8"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item m="1" x="10"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -3778,8 +5871,17 @@
   <dataFields count="1">
     <dataField name="Sum of AMOUNT" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="16">
-    <chartFormat chart="1" format="0" series="1">
+  <formats count="1">
+    <format dxfId="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="22">
+    <chartFormat chart="10" format="12" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3788,16 +5890,43 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="3" format="13" series="1">
+    <chartFormat chart="10" format="13">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="3" format="14">
+    <chartFormat chart="10" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="16">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3809,7 +5938,112 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="3" format="15">
+    <chartFormat chart="10" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="3">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3821,7 +6055,31 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="3" format="16">
+    <chartFormat chart="12" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="6">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3833,19 +6091,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
+    <chartFormat chart="12" format="7">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3857,7 +6103,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="3" format="19">
+    <chartFormat chart="12" format="8">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3869,31 +6115,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22">
+    <chartFormat chart="12" format="9">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3905,7 +6127,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="3" format="23">
+    <chartFormat chart="12" format="10">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3913,45 +6135,6 @@
           </reference>
           <reference field="1" count="1" selected="0">
             <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="10"/>
           </reference>
         </references>
       </pivotArea>
@@ -3969,12 +6152,12 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2664A9F3-5276-4AAB-87B4-303CF2686A5C}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
-  <location ref="F7:G23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="18">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4988D429-CC26-4236-8B0E-2C3D01CC9662}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="17">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -3991,70 +6174,45 @@
         <item x="13"/>
         <item x="14"/>
         <item m="1" x="15"/>
-        <item m="1" x="16"/>
         <item t="default"/>
       </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="0"/>
+    <field x="5"/>
   </rowFields>
-  <rowItems count="16">
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
+  <rowItems count="2">
     <i>
       <x v="1"/>
     </i>
@@ -4068,8 +6226,8 @@
   <dataFields count="1">
     <dataField name="Sum of AMOUNT" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="10" format="0" series="1">
+  <chartFormats count="2">
+    <chartFormat chart="7" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4078,25 +6236,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="14" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="3" series="1">
+    <chartFormat chart="9" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4119,14 +6259,14 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_DATE" xr10:uid="{6552D55D-06ED-45B3-8F4C-9D2304F2C901}" sourceName="DATE">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_DATE" xr10:uid="{5265B960-6AD0-4885-A4A7-F1A9AC56A4CD}" sourceName="DATE">
   <pivotTables>
-    <pivotTable tabId="2" name="PivotTable1"/>
-    <pivotTable tabId="2" name="PivotTable4"/>
+    <pivotTable tabId="8" name="PivotTable3"/>
+    <pivotTable tabId="7" name="PivotTable2"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="1332472497">
-      <items count="15">
+    <tabular pivotCacheId="633777583">
+      <items count="16">
         <i x="0" s="1"/>
         <i x="1" s="1"/>
         <i x="2" s="1"/>
@@ -4142,6 +6282,26 @@
         <i x="12" s="1"/>
         <i x="13" s="1"/>
         <i x="14" s="1"/>
+        <i x="15" s="1" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_PAYMENT_METHOD" xr10:uid="{447BDB18-F9D3-482B-BB88-9749A1BD9160}" sourceName="PAYMENT METHOD">
+  <pivotTables>
+    <pivotTable tabId="7" name="PivotTable2"/>
+    <pivotTable tabId="8" name="PivotTable3"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="633777583">
+      <items count="4">
+        <i x="3" s="1"/>
+        <i x="0" s="1"/>
+        <i x="2" s="1"/>
+        <i x="1" s="1"/>
       </items>
     </tabular>
   </data>
@@ -4150,7 +6310,8 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="DATE" xr10:uid="{38FC9840-8C0E-444F-AF97-00501B93EB49}" cache="Slicer_DATE" caption="DATE" rowHeight="234950"/>
+  <slicer name="DATE" xr10:uid="{AD3ABC7B-1F30-4B5C-B558-1F63B8E52A9A}" cache="Slicer_DATE" caption="DATE" rowHeight="234950"/>
+  <slicer name="PAYMENT METHOD" xr10:uid="{D7C74145-73F6-4DD1-BD1F-5586A262E8F1}" cache="Slicer_PAYMENT_METHOD" caption="PAYMENT METHOD" rowHeight="234950"/>
 </slicers>
 </file>
 
@@ -4464,23 +6625,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C949EB-BE15-4201-86AE-3EB8FF6882D9}">
-  <dimension ref="A3:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12579CB-A2DF-417A-A572-39EE988115A7}">
+  <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
@@ -4488,231 +6646,186 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="7">
         <v>8000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="7">
         <v>1740</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="7">
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="7">
         <v>1399</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="7">
         <v>1070</v>
       </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="11">
-        <v>45666</v>
-      </c>
-      <c r="G8">
-        <v>8000</v>
-      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="7">
         <v>399</v>
       </c>
-      <c r="D9" s="13">
-        <v>14468</v>
-      </c>
-      <c r="F9" s="11">
-        <v>45667</v>
-      </c>
-      <c r="G9">
-        <v>1500</v>
-      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="7">
         <v>180</v>
       </c>
-      <c r="F10" s="11">
-        <v>45670</v>
-      </c>
-      <c r="G10">
-        <v>1200</v>
-      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="7">
         <v>90</v>
       </c>
-      <c r="F11" s="11">
-        <v>45660</v>
-      </c>
-      <c r="G11">
-        <v>1200</v>
-      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="7">
         <v>60</v>
       </c>
-      <c r="F12" s="11">
-        <v>45665</v>
-      </c>
-      <c r="G12">
-        <v>700</v>
-      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="7">
         <v>30</v>
       </c>
-      <c r="F13" s="11">
-        <v>45661</v>
-      </c>
-      <c r="G13">
-        <v>540</v>
-      </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="13">
-        <v>14468</v>
-      </c>
-      <c r="F14" s="11">
-        <v>45662</v>
-      </c>
-      <c r="G14">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F15" s="11">
-        <v>45658</v>
-      </c>
-      <c r="G15">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F16" s="11">
-        <v>45669</v>
-      </c>
-      <c r="G16">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F17" s="11">
-        <v>45663</v>
-      </c>
-      <c r="G17">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F18" s="11">
-        <v>45672</v>
-      </c>
-      <c r="G18">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F19" s="11">
-        <v>45671</v>
-      </c>
-      <c r="G19">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F20" s="11">
-        <v>45664</v>
-      </c>
-      <c r="G20">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F21" s="11">
-        <v>45668</v>
-      </c>
-      <c r="G21">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F22" s="11">
-        <v>45659</v>
-      </c>
-      <c r="G22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23">
+      <c r="B14">
         <v>14468</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A920C1-0F49-46E1-9147-473DA15C5F4C}">
+  <dimension ref="G2:L2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="7:12" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="G2" s="6"/>
+      <c r="H2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId2"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D2AE6A-25C2-4D01-86B1-2095A2C40D0E}">
+  <dimension ref="A3:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>14468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>14468</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18108AAB-E401-4CEC-AFB1-312F272BF69F}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5002,67 +7115,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3196EA34-750B-474B-8131-9E83879B01AA}">
-  <dimension ref="B1:E8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="51.109375" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="8">
-        <f>SUM('raw data'!D:D)</f>
-        <v>14468</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="10">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
-      <x14:slicerList>
-        <x14:slicer r:id="rId2"/>
-      </x14:slicerList>
-    </ext>
-  </extLst>
-</worksheet>
 </file>